--- a/data/weather/weather_2020-01.xlsx
+++ b/data/weather/weather_2020-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>武汉</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:VX30"/>
+  <dimension ref="A1:VX32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51480,6 +51486,3586 @@
         <v>0</v>
       </c>
       <c r="VX30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:596">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>54</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU31" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB31" t="n">
+        <v>14</v>
+      </c>
+      <c r="DC31" t="n">
+        <v>7</v>
+      </c>
+      <c r="DD31" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ31" t="s">
+        <v>54</v>
+      </c>
+      <c r="DR31" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS31" t="n">
+        <v>8</v>
+      </c>
+      <c r="DT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU31" t="s">
+        <v>63</v>
+      </c>
+      <c r="DV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW31" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH31" t="s">
+        <v>55</v>
+      </c>
+      <c r="EI31" t="s">
+        <v>55</v>
+      </c>
+      <c r="EJ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="EK31" t="n">
+        <v>12</v>
+      </c>
+      <c r="EL31" t="s">
+        <v>60</v>
+      </c>
+      <c r="EM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER31" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY31" t="s">
+        <v>59</v>
+      </c>
+      <c r="EZ31" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC31" t="s">
+        <v>66</v>
+      </c>
+      <c r="FD31" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE31" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK31" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP31" t="s">
+        <v>59</v>
+      </c>
+      <c r="FQ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="FR31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FS31" t="n">
+        <v>-12</v>
+      </c>
+      <c r="FT31" t="s">
+        <v>63</v>
+      </c>
+      <c r="FU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV31" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW31" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG31" t="s">
+        <v>59</v>
+      </c>
+      <c r="GH31" t="s">
+        <v>57</v>
+      </c>
+      <c r="GI31" t="n">
+        <v>-5</v>
+      </c>
+      <c r="GJ31" t="n">
+        <v>-18</v>
+      </c>
+      <c r="GK31" t="s">
+        <v>63</v>
+      </c>
+      <c r="GL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN31" t="n">
+        <v>2</v>
+      </c>
+      <c r="GO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS31" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX31" t="s">
+        <v>68</v>
+      </c>
+      <c r="GY31" t="s">
+        <v>79</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="HC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD31" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO31" t="s">
+        <v>59</v>
+      </c>
+      <c r="HP31" t="s">
+        <v>57</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="HS31" t="s">
+        <v>66</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF31" t="s">
+        <v>59</v>
+      </c>
+      <c r="IG31" t="s">
+        <v>59</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>14</v>
+      </c>
+      <c r="II31" t="n">
+        <v>8</v>
+      </c>
+      <c r="IJ31" t="s">
+        <v>63</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW31" t="s">
+        <v>55</v>
+      </c>
+      <c r="IX31" t="s">
+        <v>59</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA31" t="s">
+        <v>60</v>
+      </c>
+      <c r="JB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN31" t="s">
+        <v>57</v>
+      </c>
+      <c r="JO31" t="s">
+        <v>57</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JR31" t="s">
+        <v>60</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU31" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE31" t="s">
+        <v>59</v>
+      </c>
+      <c r="KF31" t="s">
+        <v>59</v>
+      </c>
+      <c r="KG31" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI31" t="s">
+        <v>60</v>
+      </c>
+      <c r="KJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV31" t="s">
+        <v>54</v>
+      </c>
+      <c r="KW31" t="s">
+        <v>59</v>
+      </c>
+      <c r="KX31" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ31" t="s">
+        <v>66</v>
+      </c>
+      <c r="LA31" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM31" t="s">
+        <v>57</v>
+      </c>
+      <c r="LN31" t="s">
+        <v>57</v>
+      </c>
+      <c r="LO31" t="n">
+        <v>8</v>
+      </c>
+      <c r="LP31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="LQ31" t="s">
+        <v>66</v>
+      </c>
+      <c r="LR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS31" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY31" t="n">
+        <v>3</v>
+      </c>
+      <c r="LZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD31" t="s">
+        <v>82</v>
+      </c>
+      <c r="ME31" t="s">
+        <v>59</v>
+      </c>
+      <c r="MF31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="MG31" t="n">
+        <v>-11</v>
+      </c>
+      <c r="MH31" t="s">
+        <v>63</v>
+      </c>
+      <c r="MI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="MJ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="MK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP31" t="n">
+        <v>2</v>
+      </c>
+      <c r="MQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU31" t="s">
+        <v>59</v>
+      </c>
+      <c r="MV31" t="s">
+        <v>59</v>
+      </c>
+      <c r="MW31" t="n">
+        <v>5</v>
+      </c>
+      <c r="MX31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MY31" t="s">
+        <v>63</v>
+      </c>
+      <c r="MZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="NA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="NB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="NC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL31" t="s">
+        <v>55</v>
+      </c>
+      <c r="NM31" t="s">
+        <v>55</v>
+      </c>
+      <c r="NN31" t="n">
+        <v>16</v>
+      </c>
+      <c r="NO31" t="n">
+        <v>13</v>
+      </c>
+      <c r="NP31" t="s">
+        <v>58</v>
+      </c>
+      <c r="NQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="NR31" t="n">
+        <v>4</v>
+      </c>
+      <c r="NS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV31" t="n">
+        <v>2</v>
+      </c>
+      <c r="NW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="OB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC31" t="s">
+        <v>59</v>
+      </c>
+      <c r="OD31" t="s">
+        <v>59</v>
+      </c>
+      <c r="OE31" t="n">
+        <v>14</v>
+      </c>
+      <c r="OF31" t="n">
+        <v>10</v>
+      </c>
+      <c r="OG31" t="s">
+        <v>63</v>
+      </c>
+      <c r="OH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="OI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="OJ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="OK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO31" t="n">
+        <v>2</v>
+      </c>
+      <c r="OP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT31" t="s">
+        <v>59</v>
+      </c>
+      <c r="OU31" t="s">
+        <v>59</v>
+      </c>
+      <c r="OV31" t="n">
+        <v>7</v>
+      </c>
+      <c r="OW31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OX31" t="s">
+        <v>63</v>
+      </c>
+      <c r="OY31" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="PA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="PB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="PG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK31" t="s">
+        <v>54</v>
+      </c>
+      <c r="PL31" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM31" t="n">
+        <v>7</v>
+      </c>
+      <c r="PN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="PO31" t="s">
+        <v>63</v>
+      </c>
+      <c r="PP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="PQ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="PS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW31" t="n">
+        <v>2</v>
+      </c>
+      <c r="PX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB31" t="s">
+        <v>57</v>
+      </c>
+      <c r="QC31" t="s">
+        <v>59</v>
+      </c>
+      <c r="QD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="QE31" t="n">
+        <v>-12</v>
+      </c>
+      <c r="QF31" t="s">
+        <v>60</v>
+      </c>
+      <c r="QG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="QH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="QI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="QJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN31" t="n">
+        <v>2</v>
+      </c>
+      <c r="QO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS31" t="s">
+        <v>59</v>
+      </c>
+      <c r="QT31" t="s">
+        <v>57</v>
+      </c>
+      <c r="QU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="QV31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="QW31" t="s">
+        <v>65</v>
+      </c>
+      <c r="QX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY31" t="n">
+        <v>2</v>
+      </c>
+      <c r="QZ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="RA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE31" t="n">
+        <v>3</v>
+      </c>
+      <c r="RF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ31" t="s">
+        <v>54</v>
+      </c>
+      <c r="RK31" t="s">
+        <v>54</v>
+      </c>
+      <c r="RL31" t="n">
+        <v>4</v>
+      </c>
+      <c r="RM31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="RN31" t="s">
+        <v>58</v>
+      </c>
+      <c r="RO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="RP31" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA31" t="s">
+        <v>57</v>
+      </c>
+      <c r="SB31" t="s">
+        <v>57</v>
+      </c>
+      <c r="SC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="SD31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SE31" t="s">
+        <v>66</v>
+      </c>
+      <c r="SF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="SG31" t="n">
+        <v>4</v>
+      </c>
+      <c r="SH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="SI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM31" t="n">
+        <v>3</v>
+      </c>
+      <c r="SN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR31" t="s">
+        <v>59</v>
+      </c>
+      <c r="SS31" t="s">
+        <v>59</v>
+      </c>
+      <c r="ST31" t="n">
+        <v>13</v>
+      </c>
+      <c r="SU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="SV31" t="s">
+        <v>65</v>
+      </c>
+      <c r="SW31" t="n">
+        <v>1</v>
+      </c>
+      <c r="SX31" t="n">
+        <v>2</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>2</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>2</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="s">
+        <v>57</v>
+      </c>
+      <c r="TJ31" t="s">
+        <v>57</v>
+      </c>
+      <c r="TK31" t="n">
+        <v>4</v>
+      </c>
+      <c r="TL31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="TM31" t="s">
+        <v>60</v>
+      </c>
+      <c r="TN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="TO31" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP31" t="n">
+        <v>3</v>
+      </c>
+      <c r="TQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU31" t="n">
+        <v>3</v>
+      </c>
+      <c r="TV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ31" t="s">
+        <v>59</v>
+      </c>
+      <c r="UA31" t="s">
+        <v>59</v>
+      </c>
+      <c r="UB31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="UC31" t="n">
+        <v>-14</v>
+      </c>
+      <c r="UD31" t="s">
+        <v>58</v>
+      </c>
+      <c r="UE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="UG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="UH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="UM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ31" t="s">
+        <v>57</v>
+      </c>
+      <c r="UR31" t="s">
+        <v>57</v>
+      </c>
+      <c r="US31" t="n">
+        <v>10</v>
+      </c>
+      <c r="UT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU31" t="s">
+        <v>63</v>
+      </c>
+      <c r="UV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW31" t="n">
+        <v>2</v>
+      </c>
+      <c r="UX31" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC31" t="n">
+        <v>3</v>
+      </c>
+      <c r="VD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH31" t="s">
+        <v>55</v>
+      </c>
+      <c r="VI31" t="s">
+        <v>59</v>
+      </c>
+      <c r="VJ31" t="n">
+        <v>16</v>
+      </c>
+      <c r="VK31" t="n">
+        <v>11</v>
+      </c>
+      <c r="VL31" t="s">
+        <v>60</v>
+      </c>
+      <c r="VM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN31" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR31" t="n">
+        <v>2</v>
+      </c>
+      <c r="VS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="VU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:596">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>59</v>
+      </c>
+      <c r="T32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>-8</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>9</v>
+      </c>
+      <c r="CL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP32" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU32" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF32" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>57</v>
+      </c>
+      <c r="DS32" t="n">
+        <v>12</v>
+      </c>
+      <c r="DT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>63</v>
+      </c>
+      <c r="DV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW32" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC32" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>54</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>59</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>10</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>60</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>57</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>66</v>
+      </c>
+      <c r="FD32" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE32" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK32" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>59</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="FR32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="FS32" t="n">
+        <v>-13</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>66</v>
+      </c>
+      <c r="FU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV32" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW32" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB32" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>57</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>57</v>
+      </c>
+      <c r="GI32" t="n">
+        <v>-8</v>
+      </c>
+      <c r="GJ32" t="n">
+        <v>-22</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>63</v>
+      </c>
+      <c r="GL32" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM32" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN32" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>68</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>57</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>58</v>
+      </c>
+      <c r="HC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD32" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>57</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>57</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>-8</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>66</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF32" t="s">
+        <v>59</v>
+      </c>
+      <c r="IG32" t="s">
+        <v>57</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>16</v>
+      </c>
+      <c r="II32" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ32" t="s">
+        <v>63</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW32" t="s">
+        <v>54</v>
+      </c>
+      <c r="IX32" t="s">
+        <v>59</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>11</v>
+      </c>
+      <c r="IZ32" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA32" t="s">
+        <v>60</v>
+      </c>
+      <c r="JB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC32" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI32" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN32" t="s">
+        <v>57</v>
+      </c>
+      <c r="JO32" t="s">
+        <v>57</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>-7</v>
+      </c>
+      <c r="JR32" t="s">
+        <v>65</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU32" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE32" t="s">
+        <v>59</v>
+      </c>
+      <c r="KF32" t="s">
+        <v>59</v>
+      </c>
+      <c r="KG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI32" t="s">
+        <v>60</v>
+      </c>
+      <c r="KJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV32" t="s">
+        <v>59</v>
+      </c>
+      <c r="KW32" t="s">
+        <v>59</v>
+      </c>
+      <c r="KX32" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ32" t="s">
+        <v>66</v>
+      </c>
+      <c r="LA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC32" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM32" t="s">
+        <v>57</v>
+      </c>
+      <c r="LN32" t="s">
+        <v>57</v>
+      </c>
+      <c r="LO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="LP32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="LQ32" t="s">
+        <v>64</v>
+      </c>
+      <c r="LR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS32" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT32" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY32" t="n">
+        <v>3</v>
+      </c>
+      <c r="LZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD32" t="s">
+        <v>59</v>
+      </c>
+      <c r="ME32" t="s">
+        <v>59</v>
+      </c>
+      <c r="MF32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="MG32" t="n">
+        <v>-14</v>
+      </c>
+      <c r="MH32" t="s">
+        <v>63</v>
+      </c>
+      <c r="MI32" t="n">
+        <v>5</v>
+      </c>
+      <c r="MJ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="MK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="ML32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP32" t="n">
+        <v>2</v>
+      </c>
+      <c r="MQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU32" t="s">
+        <v>59</v>
+      </c>
+      <c r="MV32" t="s">
+        <v>57</v>
+      </c>
+      <c r="MW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="MX32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MY32" t="s">
+        <v>63</v>
+      </c>
+      <c r="MZ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="NA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="NB32" t="n">
+        <v>2</v>
+      </c>
+      <c r="NC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL32" t="s">
+        <v>59</v>
+      </c>
+      <c r="NM32" t="s">
+        <v>59</v>
+      </c>
+      <c r="NN32" t="n">
+        <v>16</v>
+      </c>
+      <c r="NO32" t="n">
+        <v>13</v>
+      </c>
+      <c r="NP32" t="s">
+        <v>58</v>
+      </c>
+      <c r="NQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="NR32" t="n">
+        <v>4</v>
+      </c>
+      <c r="NS32" t="n">
+        <v>2</v>
+      </c>
+      <c r="NT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC32" t="s">
+        <v>59</v>
+      </c>
+      <c r="OD32" t="s">
+        <v>59</v>
+      </c>
+      <c r="OE32" t="n">
+        <v>18</v>
+      </c>
+      <c r="OF32" t="n">
+        <v>9</v>
+      </c>
+      <c r="OG32" t="s">
+        <v>63</v>
+      </c>
+      <c r="OH32" t="n">
+        <v>3</v>
+      </c>
+      <c r="OI32" t="n">
+        <v>4</v>
+      </c>
+      <c r="OJ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="OK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO32" t="n">
+        <v>2</v>
+      </c>
+      <c r="OP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT32" t="s">
+        <v>59</v>
+      </c>
+      <c r="OU32" t="s">
+        <v>57</v>
+      </c>
+      <c r="OV32" t="n">
+        <v>6</v>
+      </c>
+      <c r="OW32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OX32" t="s">
+        <v>63</v>
+      </c>
+      <c r="OY32" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="PA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="PB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="PG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK32" t="s">
+        <v>57</v>
+      </c>
+      <c r="PL32" t="s">
+        <v>57</v>
+      </c>
+      <c r="PM32" t="n">
+        <v>11</v>
+      </c>
+      <c r="PN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="PO32" t="s">
+        <v>63</v>
+      </c>
+      <c r="PP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="PQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="PS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW32" t="n">
+        <v>3</v>
+      </c>
+      <c r="PX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB32" t="s">
+        <v>57</v>
+      </c>
+      <c r="QC32" t="s">
+        <v>57</v>
+      </c>
+      <c r="QD32" t="n">
+        <v>3</v>
+      </c>
+      <c r="QE32" t="n">
+        <v>-12</v>
+      </c>
+      <c r="QF32" t="s">
+        <v>60</v>
+      </c>
+      <c r="QG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="QH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="QI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="QJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN32" t="n">
+        <v>3</v>
+      </c>
+      <c r="QO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS32" t="s">
+        <v>57</v>
+      </c>
+      <c r="QT32" t="s">
+        <v>57</v>
+      </c>
+      <c r="QU32" t="n">
+        <v>10</v>
+      </c>
+      <c r="QV32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QW32" t="s">
+        <v>64</v>
+      </c>
+      <c r="QX32" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY32" t="n">
+        <v>2</v>
+      </c>
+      <c r="QZ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="RA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE32" t="n">
+        <v>3</v>
+      </c>
+      <c r="RF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="RK32" t="s">
+        <v>54</v>
+      </c>
+      <c r="RL32" t="n">
+        <v>8</v>
+      </c>
+      <c r="RM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="RN32" t="s">
+        <v>58</v>
+      </c>
+      <c r="RO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="RP32" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA32" t="s">
+        <v>57</v>
+      </c>
+      <c r="SB32" t="s">
+        <v>57</v>
+      </c>
+      <c r="SC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="SD32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="SF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="SG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="SH32" t="n">
+        <v>3</v>
+      </c>
+      <c r="SI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM32" t="n">
+        <v>3</v>
+      </c>
+      <c r="SN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR32" t="s">
+        <v>59</v>
+      </c>
+      <c r="SS32" t="s">
+        <v>59</v>
+      </c>
+      <c r="ST32" t="n">
+        <v>15</v>
+      </c>
+      <c r="SU32" t="n">
+        <v>6</v>
+      </c>
+      <c r="SV32" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="SX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="SY32" t="n">
+        <v>2</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>2</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="s">
+        <v>57</v>
+      </c>
+      <c r="TJ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="TK32" t="n">
+        <v>5</v>
+      </c>
+      <c r="TL32" t="n">
+        <v>-7</v>
+      </c>
+      <c r="TM32" t="s">
+        <v>60</v>
+      </c>
+      <c r="TN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="TO32" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP32" t="n">
+        <v>3</v>
+      </c>
+      <c r="TQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU32" t="n">
+        <v>3</v>
+      </c>
+      <c r="TV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="UA32" t="s">
+        <v>57</v>
+      </c>
+      <c r="UB32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="UC32" t="n">
+        <v>-18</v>
+      </c>
+      <c r="UD32" t="s">
+        <v>63</v>
+      </c>
+      <c r="UE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF32" t="n">
+        <v>2</v>
+      </c>
+      <c r="UG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="UH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL32" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ32" t="s">
+        <v>57</v>
+      </c>
+      <c r="UR32" t="s">
+        <v>57</v>
+      </c>
+      <c r="US32" t="n">
+        <v>12</v>
+      </c>
+      <c r="UT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU32" t="s">
+        <v>66</v>
+      </c>
+      <c r="UV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW32" t="n">
+        <v>2</v>
+      </c>
+      <c r="UX32" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC32" t="n">
+        <v>3</v>
+      </c>
+      <c r="VD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH32" t="s">
+        <v>59</v>
+      </c>
+      <c r="VI32" t="s">
+        <v>59</v>
+      </c>
+      <c r="VJ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="VK32" t="n">
+        <v>11</v>
+      </c>
+      <c r="VL32" t="s">
+        <v>60</v>
+      </c>
+      <c r="VM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN32" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO32" t="n">
+        <v>2</v>
+      </c>
+      <c r="VP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT32" t="n">
+        <v>2</v>
+      </c>
+      <c r="VU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-01.xlsx
+++ b/data/weather/weather_2020-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>武汉</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:VX32"/>
+  <dimension ref="A1:VX34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55066,6 +55072,3586 @@
         <v>0</v>
       </c>
       <c r="VX32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:596">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>66</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>8</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>19</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF33" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>57</v>
+      </c>
+      <c r="DS33" t="n">
+        <v>13</v>
+      </c>
+      <c r="DT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>63</v>
+      </c>
+      <c r="DV33" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW33" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX33" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC33" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>59</v>
+      </c>
+      <c r="EI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="EJ33" t="n">
+        <v>13</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>9</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO33" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET33" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY33" t="s">
+        <v>57</v>
+      </c>
+      <c r="EZ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FC33" t="s">
+        <v>66</v>
+      </c>
+      <c r="FD33" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE33" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF33" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK33" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>59</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="FR33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="FS33" t="n">
+        <v>-14</v>
+      </c>
+      <c r="FT33" t="s">
+        <v>62</v>
+      </c>
+      <c r="FU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV33" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW33" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG33" t="s">
+        <v>57</v>
+      </c>
+      <c r="GH33" t="s">
+        <v>57</v>
+      </c>
+      <c r="GI33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="GJ33" t="n">
+        <v>-23</v>
+      </c>
+      <c r="GK33" t="s">
+        <v>63</v>
+      </c>
+      <c r="GL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN33" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS33" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX33" t="s">
+        <v>57</v>
+      </c>
+      <c r="GY33" t="s">
+        <v>57</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>61</v>
+      </c>
+      <c r="HC33" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO33" t="s">
+        <v>57</v>
+      </c>
+      <c r="HP33" t="s">
+        <v>57</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="HS33" t="s">
+        <v>64</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF33" t="s">
+        <v>57</v>
+      </c>
+      <c r="IG33" t="s">
+        <v>57</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>18</v>
+      </c>
+      <c r="II33" t="n">
+        <v>6</v>
+      </c>
+      <c r="IJ33" t="s">
+        <v>60</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW33" t="s">
+        <v>54</v>
+      </c>
+      <c r="IX33" t="s">
+        <v>55</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ33" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA33" t="s">
+        <v>60</v>
+      </c>
+      <c r="JB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC33" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN33" t="s">
+        <v>59</v>
+      </c>
+      <c r="JO33" t="s">
+        <v>59</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="JR33" t="s">
+        <v>65</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU33" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE33" t="s">
+        <v>59</v>
+      </c>
+      <c r="KF33" t="s">
+        <v>59</v>
+      </c>
+      <c r="KG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="KH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI33" t="s">
+        <v>60</v>
+      </c>
+      <c r="KJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV33" t="s">
+        <v>59</v>
+      </c>
+      <c r="KW33" t="s">
+        <v>57</v>
+      </c>
+      <c r="KX33" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ33" t="s">
+        <v>66</v>
+      </c>
+      <c r="LA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC33" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM33" t="s">
+        <v>57</v>
+      </c>
+      <c r="LN33" t="s">
+        <v>57</v>
+      </c>
+      <c r="LO33" t="n">
+        <v>13</v>
+      </c>
+      <c r="LP33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="LQ33" t="s">
+        <v>63</v>
+      </c>
+      <c r="LR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT33" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY33" t="n">
+        <v>3</v>
+      </c>
+      <c r="LZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD33" t="s">
+        <v>57</v>
+      </c>
+      <c r="ME33" t="s">
+        <v>57</v>
+      </c>
+      <c r="MF33" t="n">
+        <v>-7</v>
+      </c>
+      <c r="MG33" t="n">
+        <v>-18</v>
+      </c>
+      <c r="MH33" t="s">
+        <v>63</v>
+      </c>
+      <c r="MI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="MJ33" t="n">
+        <v>5</v>
+      </c>
+      <c r="MK33" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP33" t="n">
+        <v>3</v>
+      </c>
+      <c r="MQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU33" t="s">
+        <v>57</v>
+      </c>
+      <c r="MV33" t="s">
+        <v>57</v>
+      </c>
+      <c r="MW33" t="n">
+        <v>6</v>
+      </c>
+      <c r="MX33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MY33" t="s">
+        <v>63</v>
+      </c>
+      <c r="MZ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="NA33" t="n">
+        <v>2</v>
+      </c>
+      <c r="NB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="NC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL33" t="s">
+        <v>59</v>
+      </c>
+      <c r="NM33" t="s">
+        <v>59</v>
+      </c>
+      <c r="NN33" t="n">
+        <v>18</v>
+      </c>
+      <c r="NO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="NP33" t="s">
+        <v>58</v>
+      </c>
+      <c r="NQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="NR33" t="n">
+        <v>4</v>
+      </c>
+      <c r="NS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="NT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX33" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC33" t="s">
+        <v>57</v>
+      </c>
+      <c r="OD33" t="s">
+        <v>57</v>
+      </c>
+      <c r="OE33" t="n">
+        <v>16</v>
+      </c>
+      <c r="OF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="OG33" t="s">
+        <v>58</v>
+      </c>
+      <c r="OH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="OI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="OJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="OK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO33" t="n">
+        <v>3</v>
+      </c>
+      <c r="OP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT33" t="s">
+        <v>57</v>
+      </c>
+      <c r="OU33" t="s">
+        <v>57</v>
+      </c>
+      <c r="OV33" t="n">
+        <v>7</v>
+      </c>
+      <c r="OW33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OX33" t="s">
+        <v>63</v>
+      </c>
+      <c r="OY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="PA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="PB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF33" t="n">
+        <v>3</v>
+      </c>
+      <c r="PG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK33" t="s">
+        <v>57</v>
+      </c>
+      <c r="PL33" t="s">
+        <v>57</v>
+      </c>
+      <c r="PM33" t="n">
+        <v>13</v>
+      </c>
+      <c r="PN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO33" t="s">
+        <v>63</v>
+      </c>
+      <c r="PP33" t="n">
+        <v>3</v>
+      </c>
+      <c r="PQ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="PR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="PS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW33" t="n">
+        <v>3</v>
+      </c>
+      <c r="PX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB33" t="s">
+        <v>57</v>
+      </c>
+      <c r="QC33" t="s">
+        <v>57</v>
+      </c>
+      <c r="QD33" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE33" t="n">
+        <v>-13</v>
+      </c>
+      <c r="QF33" t="s">
+        <v>60</v>
+      </c>
+      <c r="QG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="QH33" t="n">
+        <v>2</v>
+      </c>
+      <c r="QI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="QJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN33" t="n">
+        <v>3</v>
+      </c>
+      <c r="QO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS33" t="s">
+        <v>57</v>
+      </c>
+      <c r="QT33" t="s">
+        <v>59</v>
+      </c>
+      <c r="QU33" t="n">
+        <v>10</v>
+      </c>
+      <c r="QV33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="QW33" t="s">
+        <v>63</v>
+      </c>
+      <c r="QX33" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY33" t="n">
+        <v>2</v>
+      </c>
+      <c r="QZ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="RA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE33" t="n">
+        <v>2</v>
+      </c>
+      <c r="RF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ33" t="s">
+        <v>59</v>
+      </c>
+      <c r="RK33" t="s">
+        <v>54</v>
+      </c>
+      <c r="RL33" t="n">
+        <v>11</v>
+      </c>
+      <c r="RM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="RN33" t="s">
+        <v>62</v>
+      </c>
+      <c r="RO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="RP33" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA33" t="s">
+        <v>57</v>
+      </c>
+      <c r="SB33" t="s">
+        <v>57</v>
+      </c>
+      <c r="SC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="SD33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SE33" t="s">
+        <v>62</v>
+      </c>
+      <c r="SF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="SG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="SH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="SI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM33" t="n">
+        <v>3</v>
+      </c>
+      <c r="SN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR33" t="s">
+        <v>54</v>
+      </c>
+      <c r="SS33" t="s">
+        <v>55</v>
+      </c>
+      <c r="ST33" t="n">
+        <v>14</v>
+      </c>
+      <c r="SU33" t="n">
+        <v>6</v>
+      </c>
+      <c r="SV33" t="s">
+        <v>62</v>
+      </c>
+      <c r="SW33" t="n">
+        <v>1</v>
+      </c>
+      <c r="SX33" t="n">
+        <v>2</v>
+      </c>
+      <c r="SY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="TJ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="TK33" t="n">
+        <v>7</v>
+      </c>
+      <c r="TL33" t="n">
+        <v>-8</v>
+      </c>
+      <c r="TM33" t="s">
+        <v>60</v>
+      </c>
+      <c r="TN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="TO33" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP33" t="n">
+        <v>3</v>
+      </c>
+      <c r="TQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU33" t="n">
+        <v>3</v>
+      </c>
+      <c r="TV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="UA33" t="s">
+        <v>57</v>
+      </c>
+      <c r="UB33" t="n">
+        <v>-9</v>
+      </c>
+      <c r="UC33" t="n">
+        <v>-19</v>
+      </c>
+      <c r="UD33" t="s">
+        <v>63</v>
+      </c>
+      <c r="UE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF33" t="n">
+        <v>2</v>
+      </c>
+      <c r="UG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="UH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL33" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="UR33" t="s">
+        <v>57</v>
+      </c>
+      <c r="US33" t="n">
+        <v>15</v>
+      </c>
+      <c r="UT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="UU33" t="s">
+        <v>63</v>
+      </c>
+      <c r="UV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW33" t="n">
+        <v>2</v>
+      </c>
+      <c r="UX33" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC33" t="n">
+        <v>3</v>
+      </c>
+      <c r="VD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH33" t="s">
+        <v>59</v>
+      </c>
+      <c r="VI33" t="s">
+        <v>59</v>
+      </c>
+      <c r="VJ33" t="n">
+        <v>18</v>
+      </c>
+      <c r="VK33" t="n">
+        <v>11</v>
+      </c>
+      <c r="VL33" t="s">
+        <v>60</v>
+      </c>
+      <c r="VM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN33" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO33" t="n">
+        <v>2</v>
+      </c>
+      <c r="VP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT33" t="n">
+        <v>2</v>
+      </c>
+      <c r="VU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:596">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" t="s">
+        <v>59</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="s">
+        <v>63</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>63</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>58</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>59</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB34" t="n">
+        <v>20</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>62</v>
+      </c>
+      <c r="DE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS34" t="n">
+        <v>13</v>
+      </c>
+      <c r="DT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>58</v>
+      </c>
+      <c r="DV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW34" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX34" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC34" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>59</v>
+      </c>
+      <c r="EI34" t="s">
+        <v>57</v>
+      </c>
+      <c r="EJ34" t="n">
+        <v>14</v>
+      </c>
+      <c r="EK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>58</v>
+      </c>
+      <c r="EM34" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN34" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO34" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET34" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY34" t="s">
+        <v>57</v>
+      </c>
+      <c r="EZ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FC34" t="s">
+        <v>62</v>
+      </c>
+      <c r="FD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE34" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK34" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>57</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>59</v>
+      </c>
+      <c r="FR34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="FS34" t="n">
+        <v>-15</v>
+      </c>
+      <c r="FT34" t="s">
+        <v>64</v>
+      </c>
+      <c r="FU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV34" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW34" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB34" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG34" t="s">
+        <v>59</v>
+      </c>
+      <c r="GH34" t="s">
+        <v>59</v>
+      </c>
+      <c r="GI34" t="n">
+        <v>-13</v>
+      </c>
+      <c r="GJ34" t="n">
+        <v>-28</v>
+      </c>
+      <c r="GK34" t="s">
+        <v>61</v>
+      </c>
+      <c r="GL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN34" t="n">
+        <v>2</v>
+      </c>
+      <c r="GO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS34" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX34" t="s">
+        <v>57</v>
+      </c>
+      <c r="GY34" t="s">
+        <v>57</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HB34" t="s">
+        <v>65</v>
+      </c>
+      <c r="HC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO34" t="s">
+        <v>57</v>
+      </c>
+      <c r="HP34" t="s">
+        <v>57</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>-8</v>
+      </c>
+      <c r="HS34" t="s">
+        <v>64</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF34" t="s">
+        <v>57</v>
+      </c>
+      <c r="IG34" t="s">
+        <v>57</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>19</v>
+      </c>
+      <c r="II34" t="n">
+        <v>8</v>
+      </c>
+      <c r="IJ34" t="s">
+        <v>60</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW34" t="s">
+        <v>55</v>
+      </c>
+      <c r="IX34" t="s">
+        <v>55</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ34" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA34" t="s">
+        <v>60</v>
+      </c>
+      <c r="JB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC34" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN34" t="s">
+        <v>57</v>
+      </c>
+      <c r="JO34" t="s">
+        <v>57</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>-5</v>
+      </c>
+      <c r="JR34" t="s">
+        <v>60</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE34" t="s">
+        <v>81</v>
+      </c>
+      <c r="KF34" t="s">
+        <v>81</v>
+      </c>
+      <c r="KG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI34" t="s">
+        <v>65</v>
+      </c>
+      <c r="KJ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV34" t="s">
+        <v>57</v>
+      </c>
+      <c r="KW34" t="s">
+        <v>57</v>
+      </c>
+      <c r="KX34" t="n">
+        <v>10</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ34" t="s">
+        <v>63</v>
+      </c>
+      <c r="LA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB34" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC34" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH34" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM34" t="s">
+        <v>59</v>
+      </c>
+      <c r="LN34" t="s">
+        <v>59</v>
+      </c>
+      <c r="LO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="LP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ34" t="s">
+        <v>62</v>
+      </c>
+      <c r="LR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS34" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="LU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="LZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD34" t="s">
+        <v>82</v>
+      </c>
+      <c r="ME34" t="s">
+        <v>82</v>
+      </c>
+      <c r="MF34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MG34" t="n">
+        <v>-18</v>
+      </c>
+      <c r="MH34" t="s">
+        <v>61</v>
+      </c>
+      <c r="MI34" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="MK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR34" t="n">
+        <v>2</v>
+      </c>
+      <c r="MS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU34" t="s">
+        <v>57</v>
+      </c>
+      <c r="MV34" t="s">
+        <v>57</v>
+      </c>
+      <c r="MW34" t="n">
+        <v>10</v>
+      </c>
+      <c r="MX34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="MY34" t="s">
+        <v>61</v>
+      </c>
+      <c r="MZ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="NA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="NB34" t="n">
+        <v>3</v>
+      </c>
+      <c r="NC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL34" t="s">
+        <v>59</v>
+      </c>
+      <c r="NM34" t="s">
+        <v>59</v>
+      </c>
+      <c r="NN34" t="n">
+        <v>21</v>
+      </c>
+      <c r="NO34" t="n">
+        <v>12</v>
+      </c>
+      <c r="NP34" t="s">
+        <v>58</v>
+      </c>
+      <c r="NQ34" t="n">
+        <v>4</v>
+      </c>
+      <c r="NR34" t="n">
+        <v>5</v>
+      </c>
+      <c r="NS34" t="n">
+        <v>2</v>
+      </c>
+      <c r="NT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX34" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC34" t="s">
+        <v>57</v>
+      </c>
+      <c r="OD34" t="s">
+        <v>59</v>
+      </c>
+      <c r="OE34" t="n">
+        <v>18</v>
+      </c>
+      <c r="OF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="OG34" t="s">
+        <v>56</v>
+      </c>
+      <c r="OH34" t="n">
+        <v>3</v>
+      </c>
+      <c r="OI34" t="n">
+        <v>4</v>
+      </c>
+      <c r="OJ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="OK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO34" t="n">
+        <v>2</v>
+      </c>
+      <c r="OP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT34" t="s">
+        <v>57</v>
+      </c>
+      <c r="OU34" t="s">
+        <v>59</v>
+      </c>
+      <c r="OV34" t="n">
+        <v>9</v>
+      </c>
+      <c r="OW34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="OX34" t="s">
+        <v>63</v>
+      </c>
+      <c r="OY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="PA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="PB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="PG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK34" t="s">
+        <v>57</v>
+      </c>
+      <c r="PL34" t="s">
+        <v>57</v>
+      </c>
+      <c r="PM34" t="n">
+        <v>14</v>
+      </c>
+      <c r="PN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO34" t="s">
+        <v>58</v>
+      </c>
+      <c r="PP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="PQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="PS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW34" t="n">
+        <v>3</v>
+      </c>
+      <c r="PX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB34" t="s">
+        <v>59</v>
+      </c>
+      <c r="QC34" t="s">
+        <v>73</v>
+      </c>
+      <c r="QD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE34" t="n">
+        <v>-12</v>
+      </c>
+      <c r="QF34" t="s">
+        <v>60</v>
+      </c>
+      <c r="QG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="QH34" t="n">
+        <v>2</v>
+      </c>
+      <c r="QI34" t="n">
+        <v>2</v>
+      </c>
+      <c r="QJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR34" t="n">
+        <v>2</v>
+      </c>
+      <c r="QS34" t="s">
+        <v>59</v>
+      </c>
+      <c r="QT34" t="s">
+        <v>54</v>
+      </c>
+      <c r="QU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="QV34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="QW34" t="s">
+        <v>61</v>
+      </c>
+      <c r="QX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="QZ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="RA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="RF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ34" t="s">
+        <v>54</v>
+      </c>
+      <c r="RK34" t="s">
+        <v>55</v>
+      </c>
+      <c r="RL34" t="n">
+        <v>8</v>
+      </c>
+      <c r="RM34" t="n">
+        <v>5</v>
+      </c>
+      <c r="RN34" t="s">
+        <v>61</v>
+      </c>
+      <c r="RO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="RP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="RZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA34" t="s">
+        <v>57</v>
+      </c>
+      <c r="SB34" t="s">
+        <v>59</v>
+      </c>
+      <c r="SC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="SD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE34" t="s">
+        <v>61</v>
+      </c>
+      <c r="SF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="SG34" t="n">
+        <v>4</v>
+      </c>
+      <c r="SH34" t="n">
+        <v>3</v>
+      </c>
+      <c r="SI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="SN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR34" t="s">
+        <v>54</v>
+      </c>
+      <c r="SS34" t="s">
+        <v>55</v>
+      </c>
+      <c r="ST34" t="n">
+        <v>11</v>
+      </c>
+      <c r="SU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="SV34" t="s">
+        <v>64</v>
+      </c>
+      <c r="SW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="SX34" t="n">
+        <v>2</v>
+      </c>
+      <c r="SY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="s">
+        <v>59</v>
+      </c>
+      <c r="TJ34" t="s">
+        <v>54</v>
+      </c>
+      <c r="TK34" t="n">
+        <v>5</v>
+      </c>
+      <c r="TL34" t="n">
+        <v>-6</v>
+      </c>
+      <c r="TM34" t="s">
+        <v>60</v>
+      </c>
+      <c r="TN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="TO34" t="n">
+        <v>2</v>
+      </c>
+      <c r="TP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="TQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="UA34" t="s">
+        <v>57</v>
+      </c>
+      <c r="UB34" t="n">
+        <v>-7</v>
+      </c>
+      <c r="UC34" t="n">
+        <v>-17</v>
+      </c>
+      <c r="UD34" t="s">
+        <v>62</v>
+      </c>
+      <c r="UE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="UG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="UH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL34" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ34" t="s">
+        <v>57</v>
+      </c>
+      <c r="UR34" t="s">
+        <v>59</v>
+      </c>
+      <c r="US34" t="n">
+        <v>16</v>
+      </c>
+      <c r="UT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="UV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="UW34" t="n">
+        <v>2</v>
+      </c>
+      <c r="UX34" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC34" t="n">
+        <v>2</v>
+      </c>
+      <c r="VD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH34" t="s">
+        <v>59</v>
+      </c>
+      <c r="VI34" t="s">
+        <v>59</v>
+      </c>
+      <c r="VJ34" t="n">
+        <v>18</v>
+      </c>
+      <c r="VK34" t="n">
+        <v>12</v>
+      </c>
+      <c r="VL34" t="s">
+        <v>60</v>
+      </c>
+      <c r="VM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN34" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO34" t="n">
+        <v>2</v>
+      </c>
+      <c r="VP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="VU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX34" t="n">
         <v>0</v>
       </c>
     </row>
